--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H2">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I2">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J2">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N2">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O2">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P2">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q2">
-        <v>2.890829681326232</v>
+        <v>3.264117546118333</v>
       </c>
       <c r="R2">
-        <v>2.890829681326232</v>
+        <v>29.377057915065</v>
       </c>
       <c r="S2">
-        <v>0.08314534763078824</v>
+        <v>0.08279322668969585</v>
       </c>
       <c r="T2">
-        <v>0.08314534763078824</v>
+        <v>0.1093704660680339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H3">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I3">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J3">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N3">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P3">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q3">
-        <v>0.3742406145978235</v>
+        <v>0.432675898865</v>
       </c>
       <c r="R3">
-        <v>0.3742406145978235</v>
+        <v>3.894083089785</v>
       </c>
       <c r="S3">
-        <v>0.01076381849795473</v>
+        <v>0.01097467639316418</v>
       </c>
       <c r="T3">
-        <v>0.01076381849795473</v>
+        <v>0.01449762885271872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H4">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I4">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J4">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N4">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O4">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P4">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q4">
-        <v>0.6612242881291671</v>
+        <v>0.9857943643333331</v>
       </c>
       <c r="R4">
-        <v>0.6612242881291671</v>
+        <v>8.872149278999999</v>
       </c>
       <c r="S4">
-        <v>0.01901797385489616</v>
+        <v>0.02500433735075895</v>
       </c>
       <c r="T4">
-        <v>0.01901797385489616</v>
+        <v>0.03303091495666047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H5">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I5">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J5">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N5">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O5">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P5">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q5">
-        <v>0.842113532855114</v>
+        <v>1.011720034986111</v>
       </c>
       <c r="R5">
-        <v>0.842113532855114</v>
+        <v>9.105480314874999</v>
       </c>
       <c r="S5">
-        <v>0.02422066678162355</v>
+        <v>0.02566193313188834</v>
       </c>
       <c r="T5">
-        <v>0.02422066678162355</v>
+        <v>0.03389960385721573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H6">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I6">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J6">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80373272250214</v>
+        <v>1.819313</v>
       </c>
       <c r="N6">
-        <v>1.80373272250214</v>
+        <v>3.638626</v>
       </c>
       <c r="O6">
-        <v>0.3590820442740147</v>
+        <v>0.3402899442387109</v>
       </c>
       <c r="P6">
-        <v>0.3590820442740147</v>
+        <v>0.2558849928033299</v>
       </c>
       <c r="Q6">
-        <v>2.671558378502188</v>
+        <v>2.937223226921666</v>
       </c>
       <c r="R6">
-        <v>2.671558378502188</v>
+        <v>17.62333936153</v>
       </c>
       <c r="S6">
-        <v>0.07683871918549119</v>
+        <v>0.07450166393485314</v>
       </c>
       <c r="T6">
-        <v>0.07683871918549119</v>
+        <v>0.06561150014471757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H7">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J7">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N7">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O7">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P7">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q7">
-        <v>4.325487127510692</v>
+        <v>4.728128757874333</v>
       </c>
       <c r="R7">
-        <v>4.325487127510692</v>
+        <v>42.55315882086899</v>
       </c>
       <c r="S7">
-        <v>0.1244086198548997</v>
+        <v>0.1199273710391582</v>
       </c>
       <c r="T7">
-        <v>0.1244086198548997</v>
+        <v>0.1584249459684266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H8">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J8">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N8">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P8">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q8">
-        <v>0.5599682926639689</v>
+        <v>0.626738262749</v>
       </c>
       <c r="R8">
-        <v>0.5599682926639689</v>
+        <v>5.640644364741</v>
       </c>
       <c r="S8">
-        <v>0.01610567328006844</v>
+        <v>0.0158970019705911</v>
       </c>
       <c r="T8">
-        <v>0.01610567328006844</v>
+        <v>0.0210000574216585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H9">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J9">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N9">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O9">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P9">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q9">
-        <v>0.98937587543656</v>
+        <v>1.427939593933333</v>
       </c>
       <c r="R9">
-        <v>0.98937587543656</v>
+        <v>12.8514563454</v>
       </c>
       <c r="S9">
-        <v>0.02845619084101444</v>
+        <v>0.03621920008374257</v>
       </c>
       <c r="T9">
-        <v>0.02845619084101444</v>
+        <v>0.04784583174438965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H10">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J10">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N10">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O10">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P10">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q10">
-        <v>1.260036615023354</v>
+        <v>1.465493360686111</v>
       </c>
       <c r="R10">
-        <v>1.260036615023354</v>
+        <v>13.189440246175</v>
       </c>
       <c r="S10">
-        <v>0.03624086989987409</v>
+        <v>0.03717173855084286</v>
       </c>
       <c r="T10">
-        <v>0.03624086989987409</v>
+        <v>0.04910414211904081</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H11">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J11">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.80373272250214</v>
+        <v>1.819313</v>
       </c>
       <c r="N11">
-        <v>1.80373272250214</v>
+        <v>3.638626</v>
       </c>
       <c r="O11">
-        <v>0.3590820442740147</v>
+        <v>0.3402899442387109</v>
       </c>
       <c r="P11">
-        <v>0.3590820442740147</v>
+        <v>0.2558849928033299</v>
       </c>
       <c r="Q11">
-        <v>3.997396128610065</v>
+        <v>4.254616879229666</v>
       </c>
       <c r="R11">
-        <v>3.997396128610065</v>
+        <v>25.527701275378</v>
       </c>
       <c r="S11">
-        <v>0.1149721454979566</v>
+        <v>0.1079169039665148</v>
       </c>
       <c r="T11">
-        <v>0.1149721454979566</v>
+        <v>0.0950393533009944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H12">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I12">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J12">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95177621172252</v>
+        <v>2.021791</v>
       </c>
       <c r="N12">
-        <v>1.95177621172252</v>
+        <v>6.065372999999999</v>
       </c>
       <c r="O12">
-        <v>0.3885541263000972</v>
+        <v>0.3781620571349336</v>
       </c>
       <c r="P12">
-        <v>0.3885541263000972</v>
+        <v>0.426545054769166</v>
       </c>
       <c r="Q12">
-        <v>6.293083694218665</v>
+        <v>0.3799214861133333</v>
       </c>
       <c r="R12">
-        <v>6.293083694218665</v>
+        <v>3.41929337502</v>
       </c>
       <c r="S12">
-        <v>0.1810001588144092</v>
+        <v>0.009636578732121131</v>
       </c>
       <c r="T12">
-        <v>0.1810001588144092</v>
+        <v>0.01272999192534869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H13">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I13">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J13">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.252672765106433</v>
+        <v>0.267999</v>
       </c>
       <c r="N13">
-        <v>0.252672765106433</v>
+        <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05030138439852928</v>
+        <v>0.05012736388187754</v>
       </c>
       <c r="P13">
-        <v>0.05030138439852928</v>
+        <v>0.05654078395495961</v>
       </c>
       <c r="Q13">
-        <v>0.81468912701888</v>
+        <v>0.05036058542</v>
       </c>
       <c r="R13">
-        <v>0.81468912701888</v>
+        <v>0.45324526878</v>
       </c>
       <c r="S13">
-        <v>0.02343189262050611</v>
+        <v>0.001277379048393099</v>
       </c>
       <c r="T13">
-        <v>0.02343189262050611</v>
+        <v>0.001687427190051555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H14">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I14">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J14">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.446433023889388</v>
+        <v>0.6105999999999999</v>
       </c>
       <c r="N14">
-        <v>0.446433023889388</v>
+        <v>1.8318</v>
       </c>
       <c r="O14">
-        <v>0.08887463250500591</v>
+        <v>0.1142085171447447</v>
       </c>
       <c r="P14">
-        <v>0.08887463250500591</v>
+        <v>0.1288206399385756</v>
       </c>
       <c r="Q14">
-        <v>1.439427515472994</v>
+        <v>0.1147398813333333</v>
       </c>
       <c r="R14">
-        <v>1.439427515472994</v>
+        <v>1.032658932</v>
       </c>
       <c r="S14">
-        <v>0.0414004678090953</v>
+        <v>0.002910337900323605</v>
       </c>
       <c r="T14">
-        <v>0.0414004678090953</v>
+        <v>0.003844577935908265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H15">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I15">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J15">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.568562434381183</v>
+        <v>0.6266583333333333</v>
       </c>
       <c r="N15">
-        <v>0.568562434381183</v>
+        <v>1.879975</v>
       </c>
       <c r="O15">
-        <v>0.113187812522353</v>
+        <v>0.1172121175997333</v>
       </c>
       <c r="P15">
-        <v>0.113187812522353</v>
+        <v>0.1322085285339687</v>
       </c>
       <c r="Q15">
-        <v>1.833207600061769</v>
+        <v>0.1177574562777778</v>
       </c>
       <c r="R15">
-        <v>1.833207600061769</v>
+        <v>1.0598171065</v>
       </c>
       <c r="S15">
-        <v>0.05272627584085533</v>
+        <v>0.002986877658129092</v>
       </c>
       <c r="T15">
-        <v>0.05272627584085533</v>
+        <v>0.00394568752323351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1879133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.56374</v>
+      </c>
+      <c r="I16">
+        <v>0.0254826695336139</v>
+      </c>
+      <c r="J16">
+        <v>0.02984442506838532</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.819313</v>
+      </c>
+      <c r="N16">
+        <v>3.638626</v>
+      </c>
+      <c r="O16">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P16">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q16">
+        <v>0.3418731702066667</v>
+      </c>
+      <c r="R16">
+        <v>2.05123902124</v>
+      </c>
+      <c r="S16">
+        <v>0.008671496194646971</v>
+      </c>
+      <c r="T16">
+        <v>0.007636740493843296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.233196</v>
+      </c>
+      <c r="H17">
+        <v>6.466392</v>
+      </c>
+      <c r="I17">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J17">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.021791</v>
+      </c>
+      <c r="N17">
+        <v>6.065372999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3781620571349336</v>
+      </c>
+      <c r="P17">
+        <v>0.426545054769166</v>
+      </c>
+      <c r="Q17">
+        <v>6.536846574036</v>
+      </c>
+      <c r="R17">
+        <v>39.221079444216</v>
+      </c>
+      <c r="S17">
+        <v>0.1658048806739585</v>
+      </c>
+      <c r="T17">
+        <v>0.1460196508073568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.233196</v>
+      </c>
+      <c r="H18">
+        <v>6.466392</v>
+      </c>
+      <c r="I18">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J18">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.267999</v>
+      </c>
+      <c r="N18">
+        <v>0.803997</v>
+      </c>
+      <c r="O18">
+        <v>0.05012736388187754</v>
+      </c>
+      <c r="P18">
+        <v>0.05654078395495961</v>
+      </c>
+      <c r="Q18">
+        <v>0.8664932948039999</v>
+      </c>
+      <c r="R18">
+        <v>5.198959768823999</v>
+      </c>
+      <c r="S18">
+        <v>0.02197830646972916</v>
+      </c>
+      <c r="T18">
+        <v>0.01935567049053083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.233196</v>
+      </c>
+      <c r="H19">
+        <v>6.466392</v>
+      </c>
+      <c r="I19">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J19">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6105999999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.8318</v>
+      </c>
+      <c r="O19">
+        <v>0.1142085171447447</v>
+      </c>
+      <c r="P19">
+        <v>0.1288206399385756</v>
+      </c>
+      <c r="Q19">
+        <v>1.9741894776</v>
+      </c>
+      <c r="R19">
+        <v>11.8451368656</v>
+      </c>
+      <c r="S19">
+        <v>0.05007464180991953</v>
+      </c>
+      <c r="T19">
+        <v>0.04409931530161727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="H16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="I16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="J16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="N16">
-        <v>1.80373272250214</v>
-      </c>
-      <c r="O16">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="P16">
-        <v>0.3590820442740147</v>
-      </c>
-      <c r="Q16">
-        <v>5.815749221930067</v>
-      </c>
-      <c r="R16">
-        <v>5.815749221930067</v>
-      </c>
-      <c r="S16">
-        <v>0.1672711795905669</v>
-      </c>
-      <c r="T16">
-        <v>0.1672711795905669</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.233196</v>
+      </c>
+      <c r="H20">
+        <v>6.466392</v>
+      </c>
+      <c r="I20">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J20">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6266583333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.879975</v>
+      </c>
+      <c r="O20">
+        <v>0.1172121175997333</v>
+      </c>
+      <c r="P20">
+        <v>0.1322085285339687</v>
+      </c>
+      <c r="Q20">
+        <v>2.0261092167</v>
+      </c>
+      <c r="R20">
+        <v>12.1566553002</v>
+      </c>
+      <c r="S20">
+        <v>0.05139156825887296</v>
+      </c>
+      <c r="T20">
+        <v>0.04525909503447863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.233196</v>
+      </c>
+      <c r="H21">
+        <v>6.466392</v>
+      </c>
+      <c r="I21">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J21">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.819313</v>
+      </c>
+      <c r="N21">
+        <v>3.638626</v>
+      </c>
+      <c r="O21">
+        <v>0.3402899442387109</v>
+      </c>
+      <c r="P21">
+        <v>0.2558849928033299</v>
+      </c>
+      <c r="Q21">
+        <v>5.882195514348</v>
+      </c>
+      <c r="R21">
+        <v>23.528782057392</v>
+      </c>
+      <c r="S21">
+        <v>0.1491998801426959</v>
+      </c>
+      <c r="T21">
+        <v>0.08759739886377467</v>
       </c>
     </row>
   </sheetData>
